--- a/بک لاگ.xlsx
+++ b/بک لاگ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\term4\software development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCAFF304-C373-4485-9EB2-26ACF04C2269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA231FE9-4720-4890-85FA-45BB2C5CA602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{285B0901-C1ED-4BDA-B3E9-7710CBD266E4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>شماره</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>لاگین-جستجو بر اساس کد کالا-تغییر موجودی کالا-کلیک روی گزینه ی ثبت</t>
+  </si>
+  <si>
+    <t>حذف مشتری</t>
+  </si>
+  <si>
+    <t>لاگین-جستجو بر اساس کد مشتری-حذف مشتری جستجو شده-کلیک روی دکمه ی ثبت</t>
   </si>
 </sst>
 </file>
@@ -569,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66E7B70-3271-4C9A-82DA-F437584023AB}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,21 +645,21 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -662,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>30</v>
@@ -671,83 +677,101 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
         <v>30</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3">
         <v>30</v>
       </c>
       <c r="D7" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>30</v>
       </c>
       <c r="D8" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3">
         <v>30</v>
       </c>
       <c r="D9" s="3">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
